--- a/Excel_Files/Stats_Populations/2.5_cm/827_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2.5_cm/827_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0003535335571155389</v>
+        <v>0.0006094280277394655</v>
       </c>
       <c r="D2">
-        <v>0.0004509451675764041</v>
+        <v>0.0006742311618231255</v>
       </c>
       <c r="E2">
-        <v>0.0004009351805927092</v>
+        <v>0.0006423444045883515</v>
       </c>
       <c r="F2">
-        <v>0.000367530944305664</v>
+        <v>0.0006255281963416939</v>
       </c>
       <c r="G2">
-        <v>0.0002216623686351822</v>
+        <v>0.0004416889595019684</v>
       </c>
       <c r="H2">
-        <v>0.0004509451675764041</v>
+        <v>0.0006742311618231255</v>
       </c>
       <c r="I2">
-        <v>0.0003799467732531117</v>
+        <v>0.0006423157781931837</v>
       </c>
       <c r="J2">
-        <v>0.0005680951038642438</v>
+        <v>0.0008496772229891879</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001886173811158162</v>
+        <v>0.0003903285550271771</v>
       </c>
       <c r="D3">
-        <v>0.0003950895174608803</v>
+        <v>0.0006405246708936687</v>
       </c>
       <c r="E3">
-        <v>0.0002816945254185484</v>
+        <v>0.0005163988655207385</v>
       </c>
       <c r="F3">
-        <v>0.000165793341901365</v>
+        <v>0.0003500405149649037</v>
       </c>
       <c r="G3">
-        <v>0.0001666561356309106</v>
+        <v>0.000343897570976832</v>
       </c>
       <c r="H3">
-        <v>0.0002762745293445559</v>
+        <v>0.0005082305122315827</v>
       </c>
       <c r="I3">
-        <v>0.0002700259226100816</v>
+        <v>0.0004922066684267197</v>
       </c>
       <c r="J3">
-        <v>0.0002317899119853782</v>
+        <v>0.0004572670127339368</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.0001152200244758807</v>
+        <v>0.0002648983405574896</v>
       </c>
       <c r="D4">
-        <v>0.0002145430674714844</v>
+        <v>0.000409098395376087</v>
       </c>
       <c r="E4">
-        <v>0.0001937847333806751</v>
+        <v>0.0003988039631265771</v>
       </c>
       <c r="F4">
-        <v>7.937949318480259E-05</v>
+        <v>0.0001955805027697689</v>
       </c>
       <c r="G4">
-        <v>6.713799626776951E-05</v>
+        <v>0.0001707369495424182</v>
       </c>
       <c r="H4">
-        <v>0.0001438671939904285</v>
+        <v>0.0003144975631737</v>
       </c>
       <c r="I4">
-        <v>0.0001835344594959819</v>
+        <v>0.0003789866370010626</v>
       </c>
       <c r="J4">
-        <v>6.66150980288586E-05</v>
+        <v>0.0001691169175226612</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>7.806983695813531E-06</v>
+        <v>2.862268719954378E-05</v>
       </c>
       <c r="D5">
-        <v>9.640928027841788E-06</v>
+        <v>3.390846578815786E-05</v>
       </c>
       <c r="E5">
-        <v>8.820606018899573E-06</v>
+        <v>3.166894403107569E-05</v>
       </c>
       <c r="F5">
-        <v>4.684501612757765E-06</v>
+        <v>1.871611411847495E-05</v>
       </c>
       <c r="G5">
-        <v>3.598233069020202E-06</v>
+        <v>1.51567100283141E-05</v>
       </c>
       <c r="H5">
-        <v>5.723918387151156E-06</v>
+        <v>2.22420452265522E-05</v>
       </c>
       <c r="I5">
-        <v>1.016925625462418E-05</v>
+        <v>3.590037924732023E-05</v>
       </c>
       <c r="J5">
-        <v>5.321864985268614E-06</v>
+        <v>2.065744496227974E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4.913041699402684E-06</v>
+        <v>1.951815899813851E-05</v>
       </c>
       <c r="D6">
-        <v>5.36054817638837E-06</v>
+        <v>2.120110281877165E-05</v>
       </c>
       <c r="E6">
-        <v>4.479672316729688E-06</v>
+        <v>1.818988927976063E-05</v>
       </c>
       <c r="F6">
-        <v>2.167047478933069E-06</v>
+        <v>1.0027860798112E-05</v>
       </c>
       <c r="G6">
-        <v>2.064929526614993E-06</v>
+        <v>9.607755333936514E-06</v>
       </c>
       <c r="H6">
-        <v>2.770920890474034E-06</v>
+        <v>1.215022623888556E-05</v>
       </c>
       <c r="I6">
-        <v>5.508727654350113E-06</v>
+        <v>2.152782058741559E-05</v>
       </c>
       <c r="J6">
-        <v>2.735583219539971E-06</v>
+        <v>1.213093198448806E-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2.104210235971202E-06</v>
+        <v>9.747644367959811E-06</v>
       </c>
       <c r="D7">
-        <v>3.333461428455903E-06</v>
+        <v>1.435298625112088E-05</v>
       </c>
       <c r="E7">
-        <v>1.252027938051832E-06</v>
+        <v>6.303770701595874E-06</v>
       </c>
       <c r="F7">
-        <v>7.495816482591951E-07</v>
+        <v>4.181337006570571E-06</v>
       </c>
       <c r="G7">
-        <v>1.02480029382073E-06</v>
+        <v>5.32048044004228E-06</v>
       </c>
       <c r="H7">
-        <v>7.495816482591951E-07</v>
+        <v>4.181337006570571E-06</v>
       </c>
       <c r="I7">
-        <v>3.732724356541283E-06</v>
+        <v>1.569951532757905E-05</v>
       </c>
       <c r="J7">
-        <v>9.400862280358854E-07</v>
+        <v>5.037595525397049E-06</v>
       </c>
     </row>
   </sheetData>
